--- a/표.xlsx
+++ b/표.xlsx
@@ -26,10 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>고윤비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노윤지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +147,10 @@
   </si>
   <si>
     <t>배기진스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고은비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,54 +494,54 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>1</v>

--- a/표.xlsx
+++ b/표.xlsx
@@ -90,67 +90,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>임퓨리티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걸스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바다붐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오버존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언포기븐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈가코트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투애니원매시업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구찌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손오공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베베</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whiplash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배기진스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고은비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임퓨리티(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸스(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다붐(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버존(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언포기븐(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투애니원매시업(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈가코트(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉿(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베디(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손오공(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베베(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구슬(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whiplash(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배기진스(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구찌(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,45 +483,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
+    <col min="16" max="16" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
         <v>26</v>
@@ -541,7 +550,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
